--- a/data/924/SSE/SSE Main Board - Weekly.xlsx
+++ b/data/924/SSE/SSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZC3"/>
+  <dimension ref="A1:AZD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7129,15 +7129,20 @@
       </c>
       <c r="AZA1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="AZB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AZB1" s="1" t="inlineStr">
+      <c r="AZC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AZC1" s="1" t="inlineStr">
+      <c r="AZD1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11122,19 +11127,22 @@
         <v>276.43</v>
       </c>
       <c r="AYZ2" t="n">
-        <v>277.52</v>
-      </c>
-      <c r="AZA2" t="inlineStr">
+        <v>285.94</v>
+      </c>
+      <c r="AZA2" t="n">
+        <v>286.63</v>
+      </c>
+      <c r="AZB2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="AZB2" t="inlineStr">
+      <c r="AZC2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZC2" t="inlineStr">
+      <c r="AZD2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -15127,19 +15135,22 @@
         <v>3366.68</v>
       </c>
       <c r="AYZ3" t="n">
-        <v>3357.02</v>
-      </c>
-      <c r="AZA3" t="inlineStr">
+        <v>3440.64</v>
+      </c>
+      <c r="AZA3" t="n">
+        <v>3433.24</v>
+      </c>
+      <c r="AZB3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="AZB3" t="inlineStr">
+      <c r="AZC3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZC3" t="inlineStr">
+      <c r="AZD3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>

--- a/data/924/SSE/SSE Main Board - Weekly.xlsx
+++ b/data/924/SSE/SSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZD3"/>
+  <dimension ref="A1:AZF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7134,15 +7134,25 @@
       </c>
       <c r="AZB1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="AZC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="AZD1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AZC1" s="1" t="inlineStr">
+      <c r="AZE1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AZD1" s="1" t="inlineStr">
+      <c r="AZF1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11130,19 +11140,25 @@
         <v>285.94</v>
       </c>
       <c r="AZA2" t="n">
-        <v>286.63</v>
-      </c>
-      <c r="AZB2" t="inlineStr">
+        <v>288.94</v>
+      </c>
+      <c r="AZB2" t="n">
+        <v>288.25</v>
+      </c>
+      <c r="AZC2" t="n">
+        <v>290.36</v>
+      </c>
+      <c r="AZD2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="AZC2" t="inlineStr">
+      <c r="AZE2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZD2" t="inlineStr">
+      <c r="AZF2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -15138,19 +15154,25 @@
         <v>3440.64</v>
       </c>
       <c r="AZA3" t="n">
-        <v>3433.24</v>
-      </c>
-      <c r="AZB3" t="inlineStr">
+        <v>3408.23</v>
+      </c>
+      <c r="AZB3" t="n">
+        <v>3365.69</v>
+      </c>
+      <c r="AZC3" t="n">
+        <v>3302.51</v>
+      </c>
+      <c r="AZD3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="AZC3" t="inlineStr">
+      <c r="AZE3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZD3" t="inlineStr">
+      <c r="AZF3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
